--- a/backend/Templates/Form_1A1_Export_Template.xlsx
+++ b/backend/Templates/Form_1A1_Export_Template.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software_Development_Project\AFN-II_Database_Web_Application\backend\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3831B6FD-A743-4223-80C9-4BD1F21BAFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A577385E-C4A1-4667-86E0-F019A5B91C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-5895" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$8:$AC$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$8:$AD$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>ລ/ດ</t>
   </si>
@@ -210,6 +207,10 @@
   </si>
   <si>
     <t>ອື່ນໆ Other</t>
+  </si>
+  <si>
+    <t>ປະເພດກິດຈະກຳ
+Activity type</t>
   </si>
 </sst>
 </file>
@@ -466,50 +467,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -534,22 +499,112 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -558,79 +613,25 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -651,74 +652,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Home"/>
-      <sheetName val="Outreach_Cal_FML"/>
-      <sheetName val="Outreach_Cal"/>
-      <sheetName val="Logframe_update_quater"/>
-      <sheetName val="Logframe_update"/>
-      <sheetName val="Main_Dashboard"/>
-      <sheetName val="Main_Dashboard_Data"/>
-      <sheetName val="CB_for_Staff"/>
-      <sheetName val="CB_for_villagers"/>
-      <sheetName val="1A.1"/>
-      <sheetName val="1A.2"/>
-      <sheetName val="1A.3a"/>
-      <sheetName val="1A.3b"/>
-      <sheetName val="1A.4"/>
-      <sheetName val="1A.5a"/>
-      <sheetName val="1A.5b"/>
-      <sheetName val="1B.Act6"/>
-      <sheetName val="1B.Act7"/>
-      <sheetName val="1B.Act8"/>
-      <sheetName val="2.Act1"/>
-      <sheetName val="2.Act2"/>
-      <sheetName val="2.Act3"/>
-      <sheetName val="3.1a"/>
-      <sheetName val="3.1b"/>
-      <sheetName val="3.Act2"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="OneA1_English"/>
-      <definedName name="OneA1_Lao"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -985,10 +918,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC8"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -999,415 +932,428 @@
     <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.140625" style="3" customWidth="1"/>
-    <col min="18" max="19" width="9.140625" style="3"/>
-    <col min="20" max="20" width="17.42578125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="17" style="3" customWidth="1"/>
-    <col min="22" max="22" width="15.85546875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="15.42578125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="13.85546875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="18.28515625" style="3" customWidth="1"/>
-    <col min="27" max="27" width="15.5703125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="3" customWidth="1"/>
-    <col min="29" max="29" width="12.7109375" style="3" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="8" width="17.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.140625" style="3" customWidth="1"/>
+    <col min="19" max="20" width="9.140625" style="3"/>
+    <col min="21" max="21" width="17.42578125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="17" style="3" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="15.42578125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="15.7109375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="18.28515625" style="3" customWidth="1"/>
+    <col min="28" max="28" width="15.5703125" style="3" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="3" customWidth="1"/>
+    <col min="30" max="30" width="12.7109375" style="3" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="16" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:30" s="6" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="11" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="14" t="s">
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
     </row>
-    <row r="2" spans="1:29" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="17" t="s">
+    <row r="2" spans="1:30" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
     </row>
-    <row r="3" spans="1:29" s="16" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="21"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="22"/>
-      <c r="AC3" s="22"/>
+    <row r="3" spans="1:30" s="6" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="9"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
     </row>
-    <row r="4" spans="1:29" s="23" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="25"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
+    <row r="4" spans="1:30" s="11" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="13"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
     </row>
-    <row r="5" spans="1:29" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="1:30" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="J5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="48"/>
+      <c r="L5" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="M5" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="35" t="s">
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="X5" s="36" t="s">
+      <c r="Y5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="36"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
+      <c r="Z5" s="56"/>
+      <c r="AA5" s="56"/>
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="56"/>
     </row>
-    <row r="6" spans="1:29" s="27" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="7" t="s">
+    <row r="6" spans="1:30" s="15" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="43"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="31" t="s">
+      <c r="N6" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="O6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="42" t="s">
+      <c r="Q6" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="43" t="s">
+      <c r="R6" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="S6" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="T6" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="U6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="U6" s="44" t="s">
+      <c r="V6" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="W6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="W6" s="45"/>
-      <c r="X6" s="46" t="s">
+      <c r="X6" s="54"/>
+      <c r="Y6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="46" t="s">
+      <c r="Z6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="Z6" s="46" t="s">
+      <c r="AA6" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AA6" s="46" t="s">
+      <c r="AB6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="AB6" s="46" t="s">
+      <c r="AC6" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AC6" s="47" t="s">
+      <c r="AD6" s="21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="48" customFormat="1" ht="51.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="28"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="51" t="s">
+    <row r="7" spans="1:30" s="17" customFormat="1" ht="51.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="43"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="51" t="s">
+      <c r="K7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="56"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="56"/>
-      <c r="AB7" s="56"/>
-      <c r="AC7" s="57"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="22"/>
     </row>
-    <row r="8" spans="1:29" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="59">
+    <row r="8" spans="1:30" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="19">
         <v>1</v>
       </c>
-      <c r="C8" s="59">
+      <c r="C8" s="19">
         <v>2</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="19">
         <v>3</v>
       </c>
-      <c r="E8" s="59">
+      <c r="E8" s="19">
         <v>4</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="19">
         <v>5</v>
       </c>
-      <c r="G8" s="59">
+      <c r="G8" s="19">
         <v>6</v>
       </c>
-      <c r="H8" s="59">
+      <c r="H8" s="19">
         <v>7</v>
       </c>
-      <c r="I8" s="59">
+      <c r="I8" s="19">
         <v>8</v>
       </c>
-      <c r="J8" s="59">
+      <c r="J8" s="19">
         <v>9</v>
       </c>
-      <c r="K8" s="59">
+      <c r="K8" s="19">
         <v>10</v>
       </c>
-      <c r="L8" s="59">
+      <c r="L8" s="19">
         <v>11</v>
       </c>
-      <c r="M8" s="59">
+      <c r="M8" s="19">
         <v>12</v>
       </c>
-      <c r="N8" s="59">
+      <c r="N8" s="19">
         <v>13</v>
       </c>
-      <c r="O8" s="59">
+      <c r="O8" s="19">
         <v>14</v>
       </c>
-      <c r="P8" s="59">
+      <c r="P8" s="19">
         <v>15</v>
       </c>
-      <c r="Q8" s="59">
+      <c r="Q8" s="19">
         <v>16</v>
       </c>
-      <c r="R8" s="59">
+      <c r="R8" s="19">
         <v>17</v>
       </c>
-      <c r="S8" s="59">
+      <c r="S8" s="19">
         <v>18</v>
       </c>
-      <c r="T8" s="59">
+      <c r="T8" s="19">
         <v>19</v>
       </c>
-      <c r="U8" s="59">
+      <c r="U8" s="19">
         <v>20</v>
       </c>
-      <c r="V8" s="59">
+      <c r="V8" s="19">
         <v>21</v>
       </c>
-      <c r="W8" s="59">
+      <c r="W8" s="19">
         <v>22</v>
       </c>
-      <c r="X8" s="59">
+      <c r="X8" s="19">
         <v>23</v>
       </c>
-      <c r="Y8" s="59">
+      <c r="Y8" s="19">
         <v>24</v>
       </c>
-      <c r="Z8" s="59">
+      <c r="Z8" s="19">
         <v>25</v>
       </c>
-      <c r="AA8" s="59">
+      <c r="AA8" s="19">
         <v>26</v>
       </c>
-      <c r="AB8" s="59">
+      <c r="AB8" s="19">
         <v>27</v>
       </c>
-      <c r="AC8" s="59">
+      <c r="AC8" s="19">
         <v>28</v>
+      </c>
+      <c r="AD8" s="19">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B8:AC8" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="34">
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="H1:O2"/>
-    <mergeCell ref="Q1:R4"/>
-    <mergeCell ref="S1:AC1"/>
-    <mergeCell ref="S2:AC2"/>
+  <autoFilter ref="B8:AD8" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="35">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="H5:H7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:J6"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="L5:V5"/>
-    <mergeCell ref="W5:W7"/>
-    <mergeCell ref="X5:AC5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="I1:P2"/>
+    <mergeCell ref="R1:S4"/>
+    <mergeCell ref="T1:AD1"/>
+    <mergeCell ref="T2:AD2"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:W5"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="Y5:AD5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/Templates/Form_1A1_Export_Template.xlsx
+++ b/backend/Templates/Form_1A1_Export_Template.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software_Development_Project\AFN-II_Database_Web_Application\backend\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A577385E-C4A1-4667-86E0-F019A5B91C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8633F7-2756-4BC1-AF2E-7ABF4F85D0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-5895" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$8:$AD$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$8:$AF$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>ລ/ດ</t>
   </si>
@@ -151,6 +151,47 @@
     <t>ຂໍ້ມູນຜູ້ເຂົ້າຮ່ວມກິດຈະກຳ (Participant details)</t>
   </si>
   <si>
+    <t xml:space="preserve">ຊື່ ແລະ ນາມສະກຸນ ຜູ້ເຂົ້າຮ່ວມ (ສອດຄ່ອງ ຕາມໃບລົງທະບຽນ) (Names per registration sheet)
+</t>
+  </si>
+  <si>
+    <t>ເພດ (ຍິງ/ຊາຍ)
+Sexes (M/F)</t>
+  </si>
+  <si>
+    <t>ແມ່ຍິງ ເປັນຫົວໜ້າ ຄົວເຮືອນບໍ ?
+Y = ແມ່ນ
+N = ບໍ່ແມ່ນ</t>
+  </si>
+  <si>
+    <t>ແມ່ຍິງທີເຂົ້າຮ່ວມ PW=ແມ່ຍິງຖຶພາ
+ BW = ແມ່ຍິງລ້ຽງລຸກດ້ວຍນົມແມ່
+PBW=ແມ່ຍິງ ຖຶພາ ຍັງມິລຸກຍັງກິນໝົມ</t>
+  </si>
+  <si>
+    <t>ໜ້າທີ່ຮັບຜິດຊອບ Responsibility
+(Vhead, VDHead, LWU, Y, V senior, VNF, Villager, SP)</t>
+  </si>
+  <si>
+    <t>ຊົນເຜົ່າ (Ethnicity)ລະບຸຊື່ເຜົ່າຫຼັກ
+(ຕາມບັນຊີເຜົ່າ)</t>
+  </si>
+  <si>
+    <t>ພິການ/ເສຍອົງຄະບໍ (PWD)
+Y/N</t>
+  </si>
+  <si>
+    <t>ທຶນສົມທົບ Ben.
+(ມູນຄ່າ - ກີບ)</t>
+  </si>
+  <si>
+    <t>ອື່ນໆ Other</t>
+  </si>
+  <si>
+    <t>ປະເພດກິດຈະກຳ
+Activity type</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -167,50 +208,17 @@
         <rFont val="Phetsarath OT"/>
       </rPr>
       <t xml:space="preserve">
-0 = Not, 1= New, 2= Renovated
+0 = No, 1= Yes
  </t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ຊື່ ແລະ ນາມສະກຸນ ຜູ້ເຂົ້າຮ່ວມ (ສອດຄ່ອງ ຕາມໃບລົງທະບຽນ) (Names per registration sheet)
-</t>
-  </si>
-  <si>
-    <t>ເພດ (ຍິງ/ຊາຍ)
-Sexes (M/F)</t>
-  </si>
-  <si>
-    <t>ແມ່ຍິງ ເປັນຫົວໜ້າ ຄົວເຮືອນບໍ ?
-Y = ແມ່ນ
-N = ບໍ່ແມ່ນ</t>
-  </si>
-  <si>
-    <t>ແມ່ຍິງທີເຂົ້າຮ່ວມ PW=ແມ່ຍິງຖຶພາ
- BW = ແມ່ຍິງລ້ຽງລຸກດ້ວຍນົມແມ່
-PBW=ແມ່ຍິງ ຖຶພາ ຍັງມິລຸກຍັງກິນໝົມ</t>
-  </si>
-  <si>
-    <t>ໜ້າທີ່ຮັບຜິດຊອບ Responsibility
-(Vhead, VDHead, LWU, Y, V senior, VNF, Villager, SP)</t>
-  </si>
-  <si>
-    <t>ຊົນເຜົ່າ (Ethnicity)ລະບຸຊື່ເຜົ່າຫຼັກ
-(ຕາມບັນຊີເຜົ່າ)</t>
-  </si>
-  <si>
-    <t>ພິການ/ເສຍອົງຄະບໍ (PWD)
-Y/N</t>
-  </si>
-  <si>
-    <t>ທຶນສົມທົບ Ben.
-(ມູນຄ່າ - ກີບ)</t>
-  </si>
-  <si>
-    <t>ອື່ນໆ Other</t>
-  </si>
-  <si>
-    <t>ປະເພດກິດຈະກຳ
-Activity type</t>
+    <t>ຈຳນວນສູນຮຽນຮູ້ສ້າງໃໝ່
+Number of new VNC</t>
+  </si>
+  <si>
+    <t>ຈຳນວນສູນຮຽນຮູ້ປັບປຸງຄືນໃໝ່
+Number of renovated VNC</t>
   </si>
 </sst>
 </file>
@@ -514,48 +522,39 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -580,16 +579,7 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -604,35 +594,53 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -918,10 +926,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -947,89 +955,93 @@
     <col min="21" max="21" width="17.42578125" style="3" customWidth="1"/>
     <col min="22" max="22" width="17" style="3" customWidth="1"/>
     <col min="23" max="23" width="15.85546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="15.42578125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="15.7109375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13.85546875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="18.28515625" style="3" customWidth="1"/>
-    <col min="28" max="28" width="15.5703125" style="3" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="3" customWidth="1"/>
-    <col min="30" max="30" width="12.7109375" style="3" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="24" max="26" width="15.42578125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="15.7109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="13.85546875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="18.28515625" style="3" customWidth="1"/>
+    <col min="30" max="30" width="15.5703125" style="3" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="3" customWidth="1"/>
+    <col min="32" max="32" width="12.7109375" style="3" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="6" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:32" s="6" customFormat="1" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="20"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
       <c r="Q1" s="5"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="39" t="s">
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
     </row>
-    <row r="2" spans="1:30" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
+    <row r="2" spans="1:32" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="20"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
       <c r="Q2" s="5"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="41" t="s">
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
     </row>
-    <row r="3" spans="1:30" s="6" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" s="6" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
@@ -1042,17 +1054,17 @@
       <c r="K3" s="8"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
       <c r="T3" s="9"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
       <c r="AA3" s="10"/>
       <c r="AB3" s="10"/>
       <c r="AC3" s="10"/>
       <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
     </row>
-    <row r="4" spans="1:30" s="11" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" s="11" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -1060,174 +1072,184 @@
       <c r="H4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
       <c r="T4" s="13"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
       <c r="AA4" s="14"/>
       <c r="AB4" s="14"/>
       <c r="AC4" s="14"/>
       <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
     </row>
-    <row r="5" spans="1:30" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="43" t="s">
+    <row r="5" spans="1:32" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="42"/>
+      <c r="L5" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="48"/>
-      <c r="L5" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="53" t="s">
+      <c r="Y5" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z5" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA5" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="49"/>
+    </row>
+    <row r="6" spans="1:32" s="15" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="28"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="Y5" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="56"/>
-      <c r="AA5" s="56"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56"/>
-      <c r="AD5" s="56"/>
+      <c r="O6" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="V6" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="W6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB6" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC6" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD6" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE6" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF6" s="50" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" s="15" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="43"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="N6" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="P6" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="R6" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="S6" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="T6" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="U6" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="V6" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="W6" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z6" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA6" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB6" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC6" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD6" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" s="17" customFormat="1" ht="51.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="43"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="32"/>
+    <row r="7" spans="1:32" s="17" customFormat="1" ht="51.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="28"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="40"/>
       <c r="J7" s="16" t="s">
         <v>14</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="27"/>
-      <c r="Z7" s="27"/>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="22"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="51"/>
     </row>
-    <row r="8" spans="1:30" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
         <v>1</v>
       </c>
@@ -1315,10 +1337,45 @@
       <c r="AD8" s="19">
         <v>29</v>
       </c>
+      <c r="AE8" s="19">
+        <v>30</v>
+      </c>
+      <c r="AF8" s="19">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B8:AD8" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <mergeCells count="35">
+  <autoFilter ref="B8:AF8" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="37">
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Y5:Y7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="Z5:Z7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="I1:P2"/>
+    <mergeCell ref="R1:S4"/>
+    <mergeCell ref="T1:AF1"/>
+    <mergeCell ref="T2:AF2"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:W5"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="AA5:AF5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="B5:B7"/>
@@ -1326,34 +1383,7 @@
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="G5:G7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="I1:P2"/>
-    <mergeCell ref="R1:S4"/>
-    <mergeCell ref="T1:AD1"/>
-    <mergeCell ref="T2:AD2"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:K6"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:W5"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="Y5:AD5"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="AD6:AD7"/>
     <mergeCell ref="C5:C7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="Q6:Q7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
